--- a/resources/schematic/Lista_IO.xlsx
+++ b/resources/schematic/Lista_IO.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/arevbel_upv_edu_es/Documents/Documentos/Documentos propios/UPV/Makers/Istobal/Esquema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés\Documents\Github\resources\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4D2F04E46CFB4ACB3E20188552EBFC683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F3B2696-7196-4BD4-A39E-6CAACE764D9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BC703-F615-4767-920A-7856AFDDB8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="XIAO" sheetId="2" r:id="rId1"/>
+    <sheet name="Nano Every" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>Arduino estacion:</t>
   </si>
@@ -184,13 +185,133 @@
   </si>
   <si>
     <t>UART</t>
+  </si>
+  <si>
+    <t>D0/A0</t>
+  </si>
+  <si>
+    <t>D1/A1</t>
+  </si>
+  <si>
+    <t>D2/A2</t>
+  </si>
+  <si>
+    <t>D3/A3</t>
+  </si>
+  <si>
+    <t>D4/A4</t>
+  </si>
+  <si>
+    <t>D5/A5</t>
+  </si>
+  <si>
+    <t>D6/A6</t>
+  </si>
+  <si>
+    <t>D7/A7</t>
+  </si>
+  <si>
+    <t>D8/A8</t>
+  </si>
+  <si>
+    <t>D9/A9</t>
+  </si>
+  <si>
+    <t>D10/A10</t>
+  </si>
+  <si>
+    <t>Faltan pines de la pantalla</t>
+  </si>
+  <si>
+    <t>Arduino estacion(XIAO):</t>
+  </si>
+  <si>
+    <t>Arduino lanza(PICO):</t>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>GP0</t>
+  </si>
+  <si>
+    <t>GP2</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>GP4</t>
+  </si>
+  <si>
+    <t>GP5</t>
+  </si>
+  <si>
+    <t>GP6</t>
+  </si>
+  <si>
+    <t>GP7</t>
+  </si>
+  <si>
+    <t>GP8</t>
+  </si>
+  <si>
+    <t>GP9</t>
+  </si>
+  <si>
+    <t>GP10</t>
+  </si>
+  <si>
+    <t>GP11</t>
+  </si>
+  <si>
+    <t>GP12</t>
+  </si>
+  <si>
+    <t>GP13</t>
+  </si>
+  <si>
+    <t>GP14</t>
+  </si>
+  <si>
+    <t>GP15</t>
+  </si>
+  <si>
+    <t>GP16</t>
+  </si>
+  <si>
+    <t>GP17</t>
+  </si>
+  <si>
+    <t>GP18</t>
+  </si>
+  <si>
+    <t>GP19</t>
+  </si>
+  <si>
+    <t>GP20</t>
+  </si>
+  <si>
+    <t>GP21</t>
+  </si>
+  <si>
+    <t>GP22</t>
+  </si>
+  <si>
+    <t>GP26</t>
+  </si>
+  <si>
+    <t>GP27</t>
+  </si>
+  <si>
+    <t>GP28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,16 +357,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,33 +397,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thick">
@@ -316,8 +501,157 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>587637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Seeeduino XIAO - El microcontrolador Arduino más pequeño-SAMD21 Cortex M0+">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A4702C-4196-0FDA-A790-CCB04CD70A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6418730" y="414939"/>
+          <a:ext cx="5213424" cy="3442553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>456304</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Raspberry PI Pico pinout">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF427EC-58B1-F02C-3BCE-79CD48913D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6517342" y="161363"/>
+          <a:ext cx="7511527" cy="5985286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21524A60-B3C4-425D-89F3-AA48103343AF}" name="Tabla1" displayName="Tabla1" ref="A5:B27" totalsRowShown="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2931ECAB-0E89-4E62-BF2D-0540AD946CEE}" name="Tabla14" displayName="Tabla14" ref="A5:B31" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A5:B31" xr:uid="{2931ECAB-0E89-4E62-BF2D-0540AD946CEE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D2A61889-DAA5-42D1-8D4D-1D924A797A95}" name="Pin:"/>
+    <tableColumn id="2" xr3:uid="{98A7D760-F141-4734-AE77-BE0B162476E4}" name="Uso:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{18F7465B-704E-4E08-9865-15ACAC4ED4CF}" name="Tabla135" displayName="Tabla135" ref="D5:E16" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="D5:E16" xr:uid="{18F7465B-704E-4E08-9865-15ACAC4ED4CF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7A67D6BB-600C-402D-9E28-5A921C013E45}" name="Pin:"/>
+    <tableColumn id="2" xr3:uid="{790C6B46-144E-4138-8D43-E70F1C5CC536}" name="Uso:" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21524A60-B3C4-425D-89F3-AA48103343AF}" name="Tabla1" displayName="Tabla1" ref="A5:B27" totalsRowShown="0" tableBorderDxfId="4">
   <autoFilter ref="A5:B27" xr:uid="{21524A60-B3C4-425D-89F3-AA48103343AF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{02C4E4E6-1985-4217-9B70-DA0BD1E4B484}" name="Pin:"/>
@@ -327,8 +661,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A872E9A-1F7E-4C93-955E-58153FBD3DBA}" name="Tabla13" displayName="Tabla13" ref="D5:E27" totalsRowShown="0" tableBorderDxfId="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A872E9A-1F7E-4C93-955E-58153FBD3DBA}" name="Tabla13" displayName="Tabla13" ref="D5:E27" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="D5:E27" xr:uid="{6A872E9A-1F7E-4C93-955E-58153FBD3DBA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{19CAA64D-2615-4BEE-A8F1-F24534575003}" name="Pin:"/>
@@ -600,11 +934,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735BA7EC-E71B-46AA-B42A-E7B050A7731E}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +1290,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
@@ -638,14 +1314,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -685,14 +1361,14 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="5"/>
@@ -701,14 +1377,14 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="5"/>
@@ -831,7 +1507,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -840,7 +1516,7 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -851,14 +1527,14 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="6"/>
@@ -883,7 +1559,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -892,7 +1568,7 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -903,14 +1579,14 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="5"/>

--- a/resources/schematic/Lista_IO.xlsx
+++ b/resources/schematic/Lista_IO.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés\Documents\Github\resources\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BC703-F615-4767-920A-7856AFDDB8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F303E6-7367-49AC-ACFF-20D7821A418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XIAO" sheetId="2" r:id="rId1"/>
-    <sheet name="Nano Every" sheetId="1" r:id="rId2"/>
+    <sheet name="Nano Every" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Arduino estacion:</t>
   </si>
@@ -160,158 +159,32 @@
     <t>C-CSN</t>
   </si>
   <si>
-    <t>Led3</t>
-  </si>
-  <si>
-    <t>Led2</t>
-  </si>
-  <si>
-    <t>Led1</t>
-  </si>
-  <si>
     <t>S-INT</t>
   </si>
   <si>
-    <t>P-SDCS</t>
-  </si>
-  <si>
     <t>P-RST</t>
   </si>
   <si>
-    <t>P-OLEDCS</t>
-  </si>
-  <si>
     <t>P-DC</t>
   </si>
   <si>
     <t>UART</t>
   </si>
   <si>
-    <t>D0/A0</t>
-  </si>
-  <si>
-    <t>D1/A1</t>
-  </si>
-  <si>
-    <t>D2/A2</t>
-  </si>
-  <si>
-    <t>D3/A3</t>
-  </si>
-  <si>
-    <t>D4/A4</t>
-  </si>
-  <si>
-    <t>D5/A5</t>
-  </si>
-  <si>
-    <t>D6/A6</t>
-  </si>
-  <si>
-    <t>D7/A7</t>
-  </si>
-  <si>
-    <t>D8/A8</t>
-  </si>
-  <si>
-    <t>D9/A9</t>
-  </si>
-  <si>
-    <t>D10/A10</t>
-  </si>
-  <si>
-    <t>Faltan pines de la pantalla</t>
-  </si>
-  <si>
-    <t>Arduino estacion(XIAO):</t>
-  </si>
-  <si>
-    <t>Arduino lanza(PICO):</t>
-  </si>
-  <si>
-    <t>GP1</t>
-  </si>
-  <si>
-    <t>GP0</t>
-  </si>
-  <si>
-    <t>GP2</t>
-  </si>
-  <si>
-    <t>GP3</t>
-  </si>
-  <si>
-    <t>GP4</t>
-  </si>
-  <si>
-    <t>GP5</t>
-  </si>
-  <si>
-    <t>GP6</t>
-  </si>
-  <si>
-    <t>GP7</t>
-  </si>
-  <si>
-    <t>GP8</t>
-  </si>
-  <si>
-    <t>GP9</t>
-  </si>
-  <si>
-    <t>GP10</t>
-  </si>
-  <si>
-    <t>GP11</t>
-  </si>
-  <si>
-    <t>GP12</t>
-  </si>
-  <si>
-    <t>GP13</t>
-  </si>
-  <si>
-    <t>GP14</t>
-  </si>
-  <si>
-    <t>GP15</t>
-  </si>
-  <si>
-    <t>GP16</t>
-  </si>
-  <si>
-    <t>GP17</t>
-  </si>
-  <si>
-    <t>GP18</t>
-  </si>
-  <si>
-    <t>GP19</t>
-  </si>
-  <si>
-    <t>GP20</t>
-  </si>
-  <si>
-    <t>GP21</t>
-  </si>
-  <si>
-    <t>GP22</t>
-  </si>
-  <si>
-    <t>GP26</t>
-  </si>
-  <si>
-    <t>GP27</t>
-  </si>
-  <si>
-    <t>GP28</t>
+    <t>SWMonedas</t>
+  </si>
+  <si>
+    <t>SWCarga</t>
+  </si>
+  <si>
+    <t>P-CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,30 +230,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,25 +256,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -431,49 +277,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border outline="0">
         <top style="thick">
@@ -505,23 +314,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>56351</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>587637</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>29563</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Seeeduino XIAO - El microcontrolador Arduino más pequeño-SAMD21 Cortex M0+">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A4702C-4196-0FDA-A790-CCB04CD70A81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508FAF53-CF7A-92AA-4F01-A5C22F7B0B76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -544,69 +353,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6418730" y="414939"/>
-          <a:ext cx="5213424" cy="3442553"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>456304</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>167190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Raspberry PI Pico pinout">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF427EC-58B1-F02C-3BCE-79CD48913D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6517342" y="161363"/>
-          <a:ext cx="7511527" cy="5985286"/>
+          <a:off x="4448175" y="666750"/>
+          <a:ext cx="8677275" cy="6276975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,29 +377,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2931ECAB-0E89-4E62-BF2D-0540AD946CEE}" name="Tabla14" displayName="Tabla14" ref="A5:B31" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A5:B31" xr:uid="{2931ECAB-0E89-4E62-BF2D-0540AD946CEE}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2A61889-DAA5-42D1-8D4D-1D924A797A95}" name="Pin:"/>
-    <tableColumn id="2" xr3:uid="{98A7D760-F141-4734-AE77-BE0B162476E4}" name="Uso:"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{18F7465B-704E-4E08-9865-15ACAC4ED4CF}" name="Tabla135" displayName="Tabla135" ref="D5:E16" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="D5:E16" xr:uid="{18F7465B-704E-4E08-9865-15ACAC4ED4CF}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7A67D6BB-600C-402D-9E28-5A921C013E45}" name="Pin:"/>
-    <tableColumn id="2" xr3:uid="{790C6B46-144E-4138-8D43-E70F1C5CC536}" name="Uso:" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21524A60-B3C4-425D-89F3-AA48103343AF}" name="Tabla1" displayName="Tabla1" ref="A5:B27" totalsRowShown="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21524A60-B3C4-425D-89F3-AA48103343AF}" name="Tabla1" displayName="Tabla1" ref="A5:B27" totalsRowShown="0" tableBorderDxfId="1">
   <autoFilter ref="A5:B27" xr:uid="{21524A60-B3C4-425D-89F3-AA48103343AF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{02C4E4E6-1985-4217-9B70-DA0BD1E4B484}" name="Pin:"/>
@@ -661,8 +387,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A872E9A-1F7E-4C93-955E-58153FBD3DBA}" name="Tabla13" displayName="Tabla13" ref="D5:E27" totalsRowShown="0" tableBorderDxfId="3">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A872E9A-1F7E-4C93-955E-58153FBD3DBA}" name="Tabla13" displayName="Tabla13" ref="D5:E27" totalsRowShown="0" tableBorderDxfId="0">
   <autoFilter ref="D5:E27" xr:uid="{6A872E9A-1F7E-4C93-955E-58153FBD3DBA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{19CAA64D-2615-4BEE-A8F1-F24534575003}" name="Pin:"/>
@@ -934,362 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735BA7EC-E71B-46AA-B42A-E7B050A7731E}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C14:C16"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B12:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1297,7 +682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1305,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1313,7 +698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +708,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1337,11 +722,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1350,14 +735,14 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1373,7 +758,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +774,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1403,107 +788,98 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1520,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +915,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1591,23 +967,29 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1615,7 +997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1637,9 +1019,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/schematic/Lista_IO.xlsx
+++ b/resources/schematic/Lista_IO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés\Documents\Github\resources\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F303E6-7367-49AC-ACFF-20D7821A418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F78C5-F40C-4459-BA15-82BE4B9FD1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nano Every" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -277,6 +277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +665,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +865,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">

--- a/resources/schematic/Lista_IO.xlsx
+++ b/resources/schematic/Lista_IO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés\Documents\Github\resources\schematic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\Makers\Smart_Node_Pressure_Washer_Lance_for_Istobal\resources\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F78C5-F40C-4459-BA15-82BE4B9FD1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971671FC-D91D-4AFF-A3F1-09B3D7D70047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nano Every" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>Arduino estacion:</t>
   </si>
@@ -171,13 +171,16 @@
     <t>UART</t>
   </si>
   <si>
-    <t>SWMonedas</t>
-  </si>
-  <si>
     <t>SWCarga</t>
   </si>
   <si>
     <t>P-CS</t>
+  </si>
+  <si>
+    <t>SWDOWN</t>
+  </si>
+  <si>
+    <t>SWUP</t>
   </si>
 </sst>
 </file>
@@ -265,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -277,7 +281,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,14 +320,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -348,14 +351,12 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4448175" y="666750"/>
-          <a:ext cx="8677275" cy="6276975"/>
+          <a:off x="4575810" y="1418749"/>
+          <a:ext cx="8963025" cy="4481512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,18 +665,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -683,7 +684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -691,7 +692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -699,17 +700,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -723,14 +724,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
@@ -739,43 +740,43 @@
       <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -789,7 +790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -803,7 +804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -817,18 +818,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -839,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -850,29 +851,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -880,14 +881,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
@@ -896,27 +897,27 @@
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -924,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -932,14 +933,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
@@ -948,57 +949,60 @@
       <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
